--- a/tests/functions/mult_lin_reg_utils/Data.xlsx
+++ b/tests/functions/mult_lin_reg_utils/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\mult_lin_reg_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BB364-FA4D-4955-AC12-506219EA7CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2125251-4A72-4E2C-A03C-5ACC88FE19FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="6" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Design Parameters" sheetId="1" r:id="rId2"/>
     <sheet name="Responses" sheetId="3" r:id="rId3"/>
     <sheet name="Other Parameters" sheetId="4" r:id="rId4"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Features</t>
   </si>
@@ -105,6 +105,9 @@
     <t>Code</t>
   </si>
   <si>
+    <t>Run</t>
+  </si>
+  <si>
     <t>Roll temperature (°C)</t>
   </si>
   <si>
@@ -163,12 +166,6 @@
   </si>
   <si>
     <t>Not applicable</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -207,26 +204,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,8 +225,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,340 +592,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E0361B-3562-4DFE-9BED-FB5013454095}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E2">
+        <v>161.26647034381304</v>
+      </c>
+      <c r="F2">
+        <v>72.041289257868158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E3">
+        <v>163.24631274749157</v>
+      </c>
+      <c r="F3">
+        <v>85.186684022091868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="7">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E4">
+        <v>163.61126514902989</v>
+      </c>
+      <c r="F4">
+        <v>89.828855429747492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="7">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E5">
+        <v>162.54669346536949</v>
+      </c>
+      <c r="F5">
+        <v>59.174622450856383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D2" s="6">
-        <v>161.26647</v>
-      </c>
-      <c r="E2" s="6">
-        <v>72.041289000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>163.24631299999999</v>
-      </c>
-      <c r="E3" s="6">
-        <v>85.186684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D4" s="6">
-        <v>163.611265</v>
-      </c>
-      <c r="E4" s="6">
-        <v>89.828855000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D5" s="6">
-        <v>162.546693</v>
-      </c>
-      <c r="E5" s="6">
-        <v>59.174621999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>163.13595100000001</v>
-      </c>
-      <c r="E6" s="6">
-        <v>81.773995999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D7" s="6">
-        <v>162.57257200000001</v>
-      </c>
-      <c r="E7" s="6">
-        <v>84.951190999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D8" s="6">
-        <v>160.603309</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30.733031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>161.72268600000001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>84.945757999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D10" s="6">
-        <v>162.29596900000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>69.421891000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D11" s="6">
-        <v>160.39388400000001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8.8999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>162.23912799999999</v>
-      </c>
-      <c r="E12" s="6">
-        <v>21.63635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D13" s="6">
-        <v>162.16754499999999</v>
-      </c>
-      <c r="E13" s="6">
-        <v>11.601307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D14" s="6">
-        <v>161.66590500000001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3.49661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>161.94140300000001</v>
-      </c>
-      <c r="E15" s="6">
-        <v>17.198715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D16" s="6">
-        <v>162.80112399999999</v>
-      </c>
-      <c r="E16" s="6">
-        <v>14.892531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="D17" s="6">
-        <v>160.75407999999999</v>
-      </c>
-      <c r="E17" s="6">
-        <v>8.92E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-2.8333000000000001E-2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>161.73769999999999</v>
-      </c>
-      <c r="E18" s="6">
-        <v>15.862730000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-0.96333299999999999</v>
-      </c>
-      <c r="D19" s="6">
-        <v>162.06572600000001</v>
-      </c>
-      <c r="E19" s="6">
-        <v>11.623512</v>
+      <c r="B6" s="7">
+        <v>120</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E6">
+        <v>163.13595123364951</v>
+      </c>
+      <c r="F6">
+        <v>81.773996381057302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>120</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E7">
+        <v>162.57257207035542</v>
+      </c>
+      <c r="F7">
+        <v>84.951190961672879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>145</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E8">
+        <v>160.60330891119415</v>
+      </c>
+      <c r="F8">
+        <v>30.733031121982521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>145</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E9">
+        <v>161.72268604850387</v>
+      </c>
+      <c r="F9">
+        <v>84.945758440531378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>145</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E10">
+        <v>162.29596943809688</v>
+      </c>
+      <c r="F10">
+        <v>69.421891154692503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E11">
+        <v>160.39388420675371</v>
+      </c>
+      <c r="F11">
+        <v>8.8965527938430003E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E12">
+        <v>162.23912776090114</v>
+      </c>
+      <c r="F12">
+        <v>21.636350153652174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>85</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E13">
+        <v>162.16754539251556</v>
+      </c>
+      <c r="F13">
+        <v>11.601307424285451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>120</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E14">
+        <v>161.66590458807934</v>
+      </c>
+      <c r="F14">
+        <v>3.4966099123584069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>120</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E15">
+        <v>161.94140267693186</v>
+      </c>
+      <c r="F15">
+        <v>17.198715402852347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>120</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E16">
+        <v>162.80112356445107</v>
+      </c>
+      <c r="F16">
+        <v>14.892530662050966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>145</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E17">
+        <v>160.75407959775919</v>
+      </c>
+      <c r="F17">
+        <v>8.9214094531340604E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>145</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E18">
+        <v>161.73770048700803</v>
+      </c>
+      <c r="F18">
+        <v>15.862730271587914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E19">
+        <v>162.06572573839108</v>
+      </c>
+      <c r="F19">
+        <v>11.623511691296509</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -976,10 +1019,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -987,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>85</v>
@@ -996,10 +1039,10 @@
         <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1007,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>2.7</v>
@@ -1016,10 +1059,10 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1027,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>28</v>
@@ -1036,10 +1079,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1074,35 +1117,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1132,26 +1175,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tests/functions/mult_lin_reg_utils/Data.xlsx
+++ b/tests/functions/mult_lin_reg_utils/Data.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\mult_lin_reg_utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2125251-4A72-4E2C-A03C-5ACC88FE19FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A333D8A-4C43-4CA6-9A59-DCF089061C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Design Parameters" sheetId="1" r:id="rId2"/>
     <sheet name="Responses" sheetId="3" r:id="rId3"/>
-    <sheet name="Other Parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="DO NOT TOUCH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,29 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={A129F280-6E28-46E6-B655-4ABBE0C15904}</author>
+    <author>tc={BC7AD3A8-5E18-4A5C-9728-B3CD7668C3E2}</author>
+    <author>tc={53826AD9-B736-4EE5-941D-FCB297D9709B}</author>
+    <author>tc={BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}</author>
+    <author>tc={BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A129F280-6E28-46E6-B655-4ABBE0C15904}">
@@ -50,25 +70,66 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Should be single letters</t>
+    Should be single letters and CANNOT BE C (i.e. A, B, D, etc.)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{BC7AD3A8-5E18-4A5C-9728-B3CD7668C3E2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Each row is the name of each feature. Should match the feature names in the “Data” sheet </t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The minimum level of this feature.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The maximum level of this feature.</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.</t>
       </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={63297DB1-226E-491F-970B-DCA494C9496F}</author>
     <author>tc={D56EA02F-9417-4398-AAC0-EB18B9A78780}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D56EA02F-9417-4398-AAC0-EB18B9A78780}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{63297DB1-226E-491F-970B-DCA494C9496F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Either a single number (i.e. 1) of a comma-separated list of numbers (i.e. -1, 0, 1).
+    Name of each response. Should match the names in the “Data” sheet</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{D56EA02F-9417-4398-AAC0-EB18B9A78780}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Either a single number (i.e. 1) or a comma-separated list of numbers (i.e. -1, 0, 1).
 Recommended values are either:
 1
 or
@@ -82,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Features</t>
   </si>
@@ -93,79 +154,52 @@
     <t>Max Level</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Term type</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Roll temperature (°C)</t>
+  </si>
+  <si>
+    <t>Target density (g/cm3)</t>
+  </si>
+  <si>
+    <t>Calculated target porosity (%)</t>
+  </si>
+  <si>
+    <t>C/5-6 (mAh/g)</t>
+  </si>
+  <si>
+    <t>10C (mAh/g)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>Process</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Roll temperature (°C)</t>
-  </si>
-  <si>
-    <t>Target density (g/cm3)</t>
-  </si>
-  <si>
-    <t>Calculated target porosity (%)</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
     <t>-1,0,1</t>
   </si>
   <si>
     <t>-1, 0, 1</t>
-  </si>
-  <si>
-    <t>C/5-6 (mAh/g)</t>
-  </si>
-  <si>
-    <t>10C (mAh/g)</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Starting model type</t>
-  </si>
-  <si>
-    <t>Quadratic</t>
-  </si>
-  <si>
-    <t>2FI</t>
-  </si>
-  <si>
-    <t>Term type</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>Mixture complexity</t>
-  </si>
-  <si>
-    <t>Process complexity</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -571,16 +605,39 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-06-17T20:07:14.73" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{A129F280-6E28-46E6-B655-4ABBE0C15904}">
-    <text>Should be single letters</text>
+  <threadedComment ref="A1" dT="2024-07-09T18:28:17.65" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}">
+    <text xml:space="preserve">Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-06-17T20:07:14.73" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{A129F280-6E28-46E6-B655-4ABBE0C15904}">
+    <text>Should be single letters and CANNOT BE C (i.e. A, B, D, etc.)</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2024-07-09T18:31:44.34" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BC7AD3A8-5E18-4A5C-9728-B3CD7668C3E2}">
+    <text xml:space="preserve">Each row is the name of each feature. Should match the feature names in the “Data” sheet </text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2024-07-09T18:32:18.60" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+    <text>The minimum level of this feature.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2024-07-09T18:32:26.48" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+    <text>The maximum level of this feature.</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-07-09T18:33:05.39" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+    <text>Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-07-09T18:33:32.98" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{63297DB1-226E-491F-970B-DCA494C9496F}">
+    <text>Name of each response. Should match the names in the “Data” sheet</text>
+  </threadedComment>
   <threadedComment ref="B1" dT="2024-06-17T13:49:47.78" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{D56EA02F-9417-4398-AAC0-EB18B9A78780}">
-    <text>Either a single number (i.e. 1) of a comma-separated list of numbers (i.e. -1, 0, 1).
+    <text>Either a single number (i.e. 1) or a comma-separated list of numbers (i.e. -1, 0, 1).
 Recommended values are either:
 1
 or
@@ -592,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,10 +672,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -984,15 +1041,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,13 +1059,12 @@
     <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.7265625" style="1"/>
     <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1019,15 +1076,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1039,15 +1093,12 @@
         <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1059,15 +1110,12 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1079,17 +1127,11 @@
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{69911F20-3846-406C-9C44-83ADD5D4F171}">
-      <formula1>"Linear,Quadratic,Cubic,"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
       <formula1>"Process,Mixture"</formula1>
     </dataValidation>
@@ -1101,174 +1143,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A8F6C1-4570-407C-96BE-50A819E04C7D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{2F388B0D-E594-4681-B70F-E71CDD2CE433}">
-      <formula1>"Mean,Linear,2FI,3FI,Quadratic,Cubic,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1406A9D-C789-43CD-A386-937D09420C50}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22C07DCB-72FD-4B86-A08C-075EF3488F0D}">
-          <x14:formula1>
-            <xm:f>'DO NOT TOUCH'!$C$1:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5485C613-62DE-41D1-97A2-FC8CC688920F}">
-          <x14:formula1>
-            <xm:f>'DO NOT TOUCH'!B$1:B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC84E7C-0D08-4866-AC87-CF6E74E9A396}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="b">
-        <f>COUNTIF('Design Parameters'!E:E, "Mixture")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>IF(A1,"Linear","Not applicable")</f>
-        <v>Not applicable</v>
-      </c>
-      <c r="C1" t="str">
-        <f>IF(A2,"Linear","Not applicable")</f>
-        <v>Linear</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="b">
-        <f>COUNTIF('Design Parameters'!E:E, "Process")&gt;0</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(A1,"Quadratic","Not applicable")</f>
-        <v>Not applicable</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(A2,"Quadratic","Not applicable")</f>
-        <v>Quadratic</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="str">
-        <f>IF(A1,"Cubic","Not applicable")</f>
-        <v>Not applicable</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IF(A2,"Cubic","Not applicable")</f>
-        <v>Cubic</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/functions/mult_lin_reg_utils/Data.xlsx
+++ b/tests/functions/mult_lin_reg_utils/Data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\mult_lin_reg_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A333D8A-4C43-4CA6-9A59-DCF089061C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFCA850-1778-40F6-9421-A56D349C26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Design Parameters" sheetId="1" r:id="rId2"/>
-    <sheet name="Responses" sheetId="3" r:id="rId3"/>
+    <sheet name="Train Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Parameters" sheetId="1" r:id="rId3"/>
+    <sheet name="Responses" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +41,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={AF751126-B492-47A8-A21F-68667097EBC7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF751126-B492-47A8-A21F-68667097EBC7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}</author>
   </authors>
   <commentList>
@@ -55,7 +74,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A129F280-6E28-46E6-B655-4ABBE0C15904}</author>
@@ -109,7 +128,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={63297DB1-226E-491F-970B-DCA494C9496F}</author>
@@ -143,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Features</t>
   </si>
@@ -605,13 +624,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-07-09T18:28:17.65" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{AF751126-B492-47A8-A21F-68667097EBC7}">
+    <text xml:space="preserve">Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-07-09T18:28:17.65" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}">
     <text xml:space="preserve">Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-06-17T20:07:14.73" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{A129F280-6E28-46E6-B655-4ABBE0C15904}">
     <text>Should be single letters and CANNOT BE C (i.e. A, B, D, etc.)</text>
@@ -631,7 +658,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-07-09T18:33:32.98" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{63297DB1-226E-491F-970B-DCA494C9496F}">
     <text>Name of each response. Should match the names in the “Data” sheet</text>
@@ -649,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +787,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
         <v>120</v>
@@ -769,38 +796,38 @@
         <v>2.7</v>
       </c>
       <c r="D6" s="7">
-        <v>33.83</v>
+        <v>28.22</v>
       </c>
       <c r="E6">
-        <v>163.13595123364951</v>
+        <v>162.57257207035542</v>
       </c>
       <c r="F6">
-        <v>81.773996381057302</v>
+        <v>84.951190961672879</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C7" s="7">
         <v>2.7</v>
       </c>
       <c r="D7" s="7">
-        <v>28.22</v>
+        <v>39.44</v>
       </c>
       <c r="E7">
-        <v>162.57257207035542</v>
+        <v>160.60330891119415</v>
       </c>
       <c r="F7">
-        <v>84.951190961672879</v>
+        <v>30.733031121982521</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>145</v>
@@ -809,18 +836,18 @@
         <v>2.7</v>
       </c>
       <c r="D8" s="7">
-        <v>39.44</v>
+        <v>33.83</v>
       </c>
       <c r="E8">
-        <v>160.60330891119415</v>
+        <v>161.72268604850387</v>
       </c>
       <c r="F8">
-        <v>30.733031121982521</v>
+        <v>84.945758440531378</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>145</v>
@@ -829,38 +856,38 @@
         <v>2.7</v>
       </c>
       <c r="D9" s="7">
-        <v>33.83</v>
+        <v>28.22</v>
       </c>
       <c r="E9">
-        <v>161.72268604850387</v>
+        <v>162.29596943809688</v>
       </c>
       <c r="F9">
-        <v>84.945758440531378</v>
+        <v>69.421891154692503</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="7">
-        <v>28.22</v>
+        <v>39.44</v>
       </c>
       <c r="E10">
-        <v>162.29596943809688</v>
+        <v>160.39388420675371</v>
       </c>
       <c r="F10">
-        <v>69.421891154692503</v>
+        <v>8.8965527938430003E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>85</v>
@@ -869,58 +896,58 @@
         <v>3.2</v>
       </c>
       <c r="D11" s="7">
-        <v>39.44</v>
+        <v>28.22</v>
       </c>
       <c r="E11">
-        <v>160.39388420675371</v>
+        <v>162.16754539251556</v>
       </c>
       <c r="F11">
-        <v>8.8965527938430003E-4</v>
+        <v>11.601307424285451</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C12" s="7">
         <v>3.2</v>
       </c>
       <c r="D12" s="7">
-        <v>33.83</v>
+        <v>39.44</v>
       </c>
       <c r="E12">
-        <v>162.23912776090114</v>
+        <v>161.66590458807934</v>
       </c>
       <c r="F12">
-        <v>21.636350153652174</v>
+        <v>3.4966099123584069</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C13" s="7">
         <v>3.2</v>
       </c>
       <c r="D13" s="7">
-        <v>28.22</v>
+        <v>33.83</v>
       </c>
       <c r="E13">
-        <v>162.16754539251556</v>
+        <v>161.94140267693186</v>
       </c>
       <c r="F13">
-        <v>11.601307424285451</v>
+        <v>17.198715402852347</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>120</v>
@@ -929,81 +956,81 @@
         <v>3.2</v>
       </c>
       <c r="D14" s="7">
-        <v>39.44</v>
+        <v>28.22</v>
       </c>
       <c r="E14">
-        <v>161.66590458807934</v>
+        <v>162.80112356445107</v>
       </c>
       <c r="F14">
-        <v>3.4966099123584069</v>
+        <v>14.892530662050966</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7">
         <v>3.2</v>
       </c>
       <c r="D15" s="7">
-        <v>33.83</v>
+        <v>39.44</v>
       </c>
       <c r="E15">
-        <v>161.94140267693186</v>
+        <v>160.75407959775919</v>
       </c>
       <c r="F15">
-        <v>17.198715402852347</v>
+        <v>8.9214094531340604E-4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C16" s="7">
         <v>3.2</v>
       </c>
       <c r="D16" s="7">
-        <v>28.22</v>
+        <v>33.83</v>
       </c>
       <c r="E16">
-        <v>162.80112356445107</v>
+        <v>161.73770048700803</v>
       </c>
       <c r="F16">
-        <v>14.892530662050966</v>
+        <v>15.862730271587914</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" s="7">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C17" s="7">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D17" s="7">
-        <v>39.44</v>
+        <v>33.83</v>
       </c>
       <c r="E17">
-        <v>160.75407959775919</v>
+        <v>163.13595123364951</v>
       </c>
       <c r="F17">
-        <v>8.9214094531340604E-4</v>
+        <v>81.773996381057302</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C18" s="7">
         <v>3.2</v>
@@ -1012,10 +1039,10 @@
         <v>33.83</v>
       </c>
       <c r="E18">
-        <v>161.73770048700803</v>
+        <v>162.23912776090114</v>
       </c>
       <c r="F18">
-        <v>15.862730271587914</v>
+        <v>21.636350153652174</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1046,6 +1073,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E2">
+        <v>163.13595123364951</v>
+      </c>
+      <c r="F2">
+        <v>81.773996381057302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E3">
+        <v>162.23912776090114</v>
+      </c>
+      <c r="F3">
+        <v>21.636350153652174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>145</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E4">
+        <v>162.06572573839108</v>
+      </c>
+      <c r="F4">
+        <v>11.623511691296509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1141,12 +1265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A8F6C1-4570-407C-96BE-50A819E04C7D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tests/functions/mult_lin_reg_utils/Data.xlsx
+++ b/tests/functions/mult_lin_reg_utils/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\tests\functions\mult_lin_reg_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFCA850-1778-40F6-9421-A56D349C26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CA292-B0B7-43BA-9211-237FC84199D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Train Data" sheetId="4" r:id="rId1"/>
@@ -100,7 +100,7 @@
     Each row is the name of each feature. Should match the feature names in the “Data” sheet </t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     The minimum level of this feature.</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     The maximum level of this feature.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Features</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>-1, 0, 1</t>
+  </si>
+  <si>
+    <t>Feature type</t>
+  </si>
+  <si>
+    <t>Numerical</t>
   </si>
 </sst>
 </file>
@@ -646,13 +652,13 @@
   <threadedComment ref="B1" dT="2024-07-09T18:31:44.34" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BC7AD3A8-5E18-4A5C-9728-B3CD7668C3E2}">
     <text xml:space="preserve">Each row is the name of each feature. Should match the feature names in the “Data” sheet </text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-07-09T18:32:18.60" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+  <threadedComment ref="D1" dT="2024-07-09T18:32:18.60" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
     <text>The minimum level of this feature.</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-07-09T18:32:26.48" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+  <threadedComment ref="E1" dT="2024-07-09T18:32:26.48" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
     <text>The maximum level of this feature.</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-07-09T18:33:05.39" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+  <threadedComment ref="F1" dT="2024-07-09T18:33:05.39" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
     <text>Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.</text>
   </threadedComment>
 </ThreadedComments>
@@ -679,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1171,22 +1177,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1194,70 +1201,85 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
         <v>85</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>145</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>3.2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
         <v>28</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
       <formula1>"Process,Mixture"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{A24BB7C6-2CFF-4AC1-A2A1-DC71321121EE}">
+      <formula1>"Numerical, Categorical"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
